--- a/PROJECTS MACRO/Profit Loss/07-02-2024/Macro/WO BUDGETING/Owi Wijaya/Owi Wijaya.xlsx
+++ b/PROJECTS MACRO/Profit Loss/07-02-2024/Macro/WO BUDGETING/Owi Wijaya/Owi Wijaya.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\rpa$\RPA Excel Template\Accounting Finance\Santy\Profit Loss\07-02-2024\Macro\WO BUDGETING\Owi Wijaya\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{82C69E70-9E1D-47F2-82DF-C196BF0A805D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8953526-D73E-4230-A703-F1E753AF81F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{44AFB52B-542D-4D0C-8D6A-895EFD03D949}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{8AF4C161-4EF4-4614-8F25-9A564D7EA2FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Owi Wijaya" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="154">
   <si>
     <t>Periode : February-2024</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>OVER</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>BUSINESS TRIP EXPENSES</t>
@@ -1101,8 +1104,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E21EA86-0281-428F-8149-8504A22EA6F4}">
-  <sheetPr codeName="Sheet21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{036C3DE4-C5E3-4B08-BD44-7FCE0AF5AAC8}">
   <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A44" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -1312,23 +1314,25 @@
       <c r="P6" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="Q6" s="31"/>
+      <c r="Q6" s="31" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" s="33" t="s">
         <v>21</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F7" s="33"/>
       <c r="G7" s="34">
@@ -1353,31 +1357,33 @@
         <v>7.0542336417905055E-2</v>
       </c>
       <c r="N7" s="37" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O7" s="33">
         <v>1</v>
       </c>
       <c r="P7" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q7" s="38"/>
+        <v>30</v>
+      </c>
+      <c r="Q7" s="38" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="8" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D8" s="26" t="s">
         <v>21</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F8" s="26"/>
       <c r="G8" s="27">
@@ -1402,31 +1408,33 @@
         <v>4.030613614879202E-3</v>
       </c>
       <c r="N8" s="30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O8" s="26">
         <v>1</v>
       </c>
       <c r="P8" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q8" s="31"/>
+        <v>30</v>
+      </c>
+      <c r="Q8" s="31" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="9" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F9" s="33"/>
       <c r="G9" s="34">
@@ -1451,31 +1459,33 @@
         <v>7.5628318672853808E-4</v>
       </c>
       <c r="N9" s="37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O9" s="33">
         <v>1</v>
       </c>
       <c r="P9" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q9" s="38"/>
+        <v>30</v>
+      </c>
+      <c r="Q9" s="38" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="10" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D10" s="26" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F10" s="26"/>
       <c r="G10" s="27">
@@ -1500,31 +1510,33 @@
         <v>2.5311019755247403E-2</v>
       </c>
       <c r="N10" s="30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O10" s="26">
         <v>1</v>
       </c>
       <c r="P10" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q10" s="31"/>
+        <v>30</v>
+      </c>
+      <c r="Q10" s="31" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="11" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D11" s="33" t="s">
         <v>21</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F11" s="33"/>
       <c r="G11" s="34">
@@ -1549,31 +1561,33 @@
         <v>2.0851181827549647E-2</v>
       </c>
       <c r="N11" s="37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O11" s="33">
         <v>1</v>
       </c>
       <c r="P11" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q11" s="38"/>
+        <v>30</v>
+      </c>
+      <c r="Q11" s="38" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="12" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D12" s="26" t="s">
         <v>21</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" s="26"/>
       <c r="G12" s="27">
@@ -1598,31 +1612,33 @@
         <v>7.6165687882592762E-3</v>
       </c>
       <c r="N12" s="30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O12" s="26">
         <v>1</v>
       </c>
       <c r="P12" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q12" s="31"/>
+        <v>30</v>
+      </c>
+      <c r="Q12" s="31" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="13" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D13" s="33" t="s">
         <v>21</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F13" s="33"/>
       <c r="G13" s="34">
@@ -1647,31 +1663,33 @@
         <v>3.4841140464560792E-2</v>
       </c>
       <c r="N13" s="37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O13" s="33">
         <v>2</v>
       </c>
       <c r="P13" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q13" s="38"/>
+        <v>30</v>
+      </c>
+      <c r="Q13" s="38" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="14" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D14" s="26" t="s">
         <v>21</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F14" s="26"/>
       <c r="G14" s="27">
@@ -1696,31 +1714,33 @@
         <v>2.8687641387040589E-3</v>
       </c>
       <c r="N14" s="30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O14" s="26">
         <v>2</v>
       </c>
       <c r="P14" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q14" s="31"/>
+        <v>30</v>
+      </c>
+      <c r="Q14" s="31" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="15" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="32" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D15" s="33" t="s">
         <v>21</v>
       </c>
       <c r="E15" s="33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F15" s="33"/>
       <c r="G15" s="34">
@@ -1745,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="N15" s="37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O15" s="33">
         <v>1</v>
@@ -1753,23 +1773,25 @@
       <c r="P15" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="Q15" s="38"/>
+      <c r="Q15" s="38" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="16" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F16" s="26"/>
       <c r="G16" s="27">
@@ -1792,31 +1814,33 @@
         <v>2.2140404431483244E-2</v>
       </c>
       <c r="N16" s="30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O16" s="26">
         <v>1</v>
       </c>
       <c r="P16" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q16" s="31"/>
+        <v>30</v>
+      </c>
+      <c r="Q16" s="31" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="17" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D17" s="33" t="s">
         <v>21</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F17" s="33"/>
       <c r="G17" s="34">
@@ -1841,31 +1865,33 @@
         <v>1.346124540624799E-2</v>
       </c>
       <c r="N17" s="37" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O17" s="33">
         <v>1</v>
       </c>
       <c r="P17" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q17" s="38"/>
+        <v>30</v>
+      </c>
+      <c r="Q17" s="38" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="18" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F18" s="26"/>
       <c r="G18" s="27">
@@ -1888,31 +1914,33 @@
         <v>2.5180577227474875E-3</v>
       </c>
       <c r="N18" s="30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O18" s="26">
         <v>1</v>
       </c>
       <c r="P18" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q18" s="31"/>
+        <v>30</v>
+      </c>
+      <c r="Q18" s="31" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="19" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="32" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E19" s="33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F19" s="33"/>
       <c r="G19" s="34">
@@ -1937,31 +1965,33 @@
         <v>3.2910318761006023E-2</v>
       </c>
       <c r="N19" s="37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O19" s="33">
         <v>1</v>
       </c>
       <c r="P19" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q19" s="38"/>
+        <v>30</v>
+      </c>
+      <c r="Q19" s="38" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="20" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="26" t="s">
         <v>21</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F20" s="26"/>
       <c r="G20" s="27">
@@ -1984,31 +2014,33 @@
         <v>2.8501888909059497E-2</v>
       </c>
       <c r="N20" s="30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="26">
         <v>1</v>
       </c>
       <c r="P20" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q20" s="31"/>
+        <v>30</v>
+      </c>
+      <c r="Q20" s="31" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="21" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="32" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E21" s="33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F21" s="33"/>
       <c r="G21" s="34">
@@ -2031,31 +2063,33 @@
         <v>2.4279354973300995E-2</v>
       </c>
       <c r="N21" s="37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O21" s="33">
         <v>1</v>
       </c>
       <c r="P21" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q21" s="38"/>
+        <v>30</v>
+      </c>
+      <c r="Q21" s="38" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="22" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" s="26" t="s">
         <v>21</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F22" s="26"/>
       <c r="G22" s="27">
@@ -2080,31 +2114,33 @@
         <v>8.0727836971031912E-3</v>
       </c>
       <c r="N22" s="30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O22" s="26">
         <v>1</v>
       </c>
       <c r="P22" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q22" s="31"/>
+        <v>30</v>
+      </c>
+      <c r="Q22" s="31" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="23" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="32" t="s">
         <v>18</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E23" s="33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F23" s="33"/>
       <c r="G23" s="34">
@@ -2127,31 +2163,33 @@
         <v>4.3031462080560879E-3</v>
       </c>
       <c r="N23" s="37" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O23" s="33">
         <v>1</v>
       </c>
       <c r="P23" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q23" s="38"/>
+        <v>30</v>
+      </c>
+      <c r="Q23" s="38" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="24" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
         <v>18</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D24" s="26" t="s">
         <v>21</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F24" s="26"/>
       <c r="G24" s="27">
@@ -2174,31 +2212,33 @@
         <v>3.2830997432570862E-2</v>
       </c>
       <c r="N24" s="30" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O24" s="26">
         <v>1</v>
       </c>
       <c r="P24" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q24" s="31"/>
+        <v>30</v>
+      </c>
+      <c r="Q24" s="31" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="25" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
         <v>18</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D25" s="33" t="s">
         <v>21</v>
       </c>
       <c r="E25" s="33" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F25" s="33"/>
       <c r="G25" s="34">
@@ -2223,31 +2263,33 @@
         <v>0.52355175032480172</v>
       </c>
       <c r="N25" s="37" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O25" s="33">
         <v>1</v>
       </c>
       <c r="P25" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q25" s="38"/>
+        <v>30</v>
+      </c>
+      <c r="Q25" s="38" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="26" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
         <v>18</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D26" s="26" t="s">
         <v>21</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F26" s="26"/>
       <c r="G26" s="27">
@@ -2272,31 +2314,33 @@
         <v>2.0657540248187119E-2</v>
       </c>
       <c r="N26" s="30" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O26" s="26">
         <v>1</v>
       </c>
       <c r="P26" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q26" s="31"/>
+        <v>30</v>
+      </c>
+      <c r="Q26" s="31" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="27" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="32" t="s">
         <v>18</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E27" s="33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F27" s="33"/>
       <c r="G27" s="34">
@@ -2319,31 +2363,33 @@
         <v>2.0468632129653461E-4</v>
       </c>
       <c r="N27" s="37" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O27" s="33">
         <v>1</v>
       </c>
       <c r="P27" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q27" s="38"/>
+        <v>30</v>
+      </c>
+      <c r="Q27" s="38" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="28" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="24" t="s">
         <v>18</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F28" s="26"/>
       <c r="G28" s="27">
@@ -2366,31 +2412,33 @@
         <v>5.1006626386158166E-4</v>
       </c>
       <c r="N28" s="30" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O28" s="26">
         <v>1</v>
       </c>
       <c r="P28" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q28" s="31"/>
+        <v>30</v>
+      </c>
+      <c r="Q28" s="31" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="29" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="32" t="s">
         <v>18</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C29" s="32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E29" s="33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F29" s="33"/>
       <c r="G29" s="34">
@@ -2415,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="N29" s="37" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O29" s="33">
         <v>1</v>
@@ -2423,23 +2471,25 @@
       <c r="P29" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="Q29" s="38"/>
+      <c r="Q29" s="38" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="30" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="24" t="s">
         <v>18</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D30" s="26" t="s">
         <v>21</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F30" s="26"/>
       <c r="G30" s="27">
@@ -2464,7 +2514,7 @@
         <v>0</v>
       </c>
       <c r="N30" s="30" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O30" s="26">
         <v>1</v>
@@ -2472,23 +2522,25 @@
       <c r="P30" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="Q30" s="31"/>
+      <c r="Q30" s="31" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="31" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="32" t="s">
         <v>18</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C31" s="32" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D31" s="33" t="s">
         <v>21</v>
       </c>
       <c r="E31" s="33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" s="33"/>
       <c r="G31" s="34">
@@ -2511,31 +2563,33 @@
         <v>1.4343820693520294E-3</v>
       </c>
       <c r="N31" s="37" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O31" s="33">
         <v>1</v>
       </c>
       <c r="P31" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q31" s="38"/>
+        <v>30</v>
+      </c>
+      <c r="Q31" s="38" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="32" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="24" t="s">
         <v>18</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D32" s="26" t="s">
         <v>21</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" s="26"/>
       <c r="G32" s="27">
@@ -2558,31 +2612,33 @@
         <v>1.4343820693520294E-3</v>
       </c>
       <c r="N32" s="30" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O32" s="26">
         <v>1</v>
       </c>
       <c r="P32" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q32" s="31"/>
+        <v>30</v>
+      </c>
+      <c r="Q32" s="31" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="33" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="32" t="s">
         <v>18</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C33" s="32" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D33" s="33" t="s">
         <v>21</v>
       </c>
       <c r="E33" s="33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" s="33"/>
       <c r="G33" s="34">
@@ -2607,7 +2663,7 @@
         <v>0</v>
       </c>
       <c r="N33" s="37" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O33" s="33">
         <v>1</v>
@@ -2615,23 +2671,25 @@
       <c r="P33" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="Q33" s="38"/>
+      <c r="Q33" s="38" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="34" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="24" t="s">
         <v>18</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D34" s="26" t="s">
         <v>21</v>
       </c>
       <c r="E34" s="26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" s="26"/>
       <c r="G34" s="27">
@@ -2654,31 +2712,33 @@
         <v>1.4343820693520294E-3</v>
       </c>
       <c r="N34" s="30" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O34" s="26">
         <v>1</v>
       </c>
       <c r="P34" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q34" s="31"/>
+        <v>30</v>
+      </c>
+      <c r="Q34" s="31" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="35" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="32" t="s">
         <v>18</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C35" s="32" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D35" s="33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E35" s="33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F35" s="33"/>
       <c r="G35" s="34">
@@ -2701,31 +2761,33 @@
         <v>3.5859551733800734E-3</v>
       </c>
       <c r="N35" s="37" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O35" s="33">
         <v>1</v>
       </c>
       <c r="P35" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q35" s="38"/>
+        <v>30</v>
+      </c>
+      <c r="Q35" s="38" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="36" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="24" t="s">
         <v>18</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E36" s="26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F36" s="26"/>
       <c r="G36" s="27">
@@ -2748,31 +2810,33 @@
         <v>4.3031462080560879E-3</v>
       </c>
       <c r="N36" s="30" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O36" s="26">
         <v>1</v>
       </c>
       <c r="P36" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q36" s="31"/>
+        <v>30</v>
+      </c>
+      <c r="Q36" s="31" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="37" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="32" t="s">
         <v>18</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C37" s="32" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D37" s="33" t="s">
         <v>21</v>
       </c>
       <c r="E37" s="33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" s="33"/>
       <c r="G37" s="34">
@@ -2795,31 +2859,33 @@
         <v>1.4343820693520294E-3</v>
       </c>
       <c r="N37" s="37" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O37" s="33">
         <v>1</v>
       </c>
       <c r="P37" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q37" s="38"/>
+        <v>30</v>
+      </c>
+      <c r="Q37" s="38" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="38" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="24" t="s">
         <v>18</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D38" s="26" t="s">
         <v>21</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" s="26"/>
       <c r="G38" s="27">
@@ -2842,31 +2908,33 @@
         <v>1.4343820693520294E-3</v>
       </c>
       <c r="N38" s="30" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O38" s="26">
         <v>1</v>
       </c>
       <c r="P38" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q38" s="31"/>
+        <v>30</v>
+      </c>
+      <c r="Q38" s="31" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="39" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="32" t="s">
         <v>18</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C39" s="32" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D39" s="33" t="s">
         <v>21</v>
       </c>
       <c r="E39" s="33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F39" s="33"/>
       <c r="G39" s="34">
@@ -2891,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="N39" s="37" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O39" s="33">
         <v>1</v>
@@ -2899,23 +2967,25 @@
       <c r="P39" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="Q39" s="38"/>
+      <c r="Q39" s="38" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="40" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="24" t="s">
         <v>18</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F40" s="26"/>
       <c r="G40" s="27">
@@ -2938,31 +3008,33 @@
         <v>1.5748080739415931E-3</v>
       </c>
       <c r="N40" s="30" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O40" s="26">
         <v>1</v>
       </c>
       <c r="P40" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q40" s="31"/>
+        <v>30</v>
+      </c>
+      <c r="Q40" s="31" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="41" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="32" t="s">
         <v>18</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C41" s="32" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D41" s="33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E41" s="33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F41" s="33"/>
       <c r="G41" s="34">
@@ -2987,31 +3059,33 @@
         <v>2.4295563490684675E-3</v>
       </c>
       <c r="N41" s="37" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O41" s="33">
         <v>1</v>
       </c>
       <c r="P41" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q41" s="38"/>
+        <v>30</v>
+      </c>
+      <c r="Q41" s="38" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="42" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
         <v>18</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E42" s="26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F42" s="26"/>
       <c r="G42" s="27">
@@ -3036,31 +3110,33 @@
         <v>2.0379700441353634E-3</v>
       </c>
       <c r="N42" s="30" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O42" s="26">
         <v>1</v>
       </c>
       <c r="P42" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q42" s="31"/>
+        <v>30</v>
+      </c>
+      <c r="Q42" s="31" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="43" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="32" t="s">
         <v>18</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C43" s="32" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D43" s="33" t="s">
         <v>21</v>
       </c>
       <c r="E43" s="33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F43" s="33"/>
       <c r="G43" s="34">
@@ -3085,31 +3161,33 @@
         <v>6.1678428982137261E-2</v>
       </c>
       <c r="N43" s="37" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O43" s="33">
         <v>1</v>
       </c>
       <c r="P43" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q43" s="38"/>
+        <v>30</v>
+      </c>
+      <c r="Q43" s="38" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="44" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="24" t="s">
         <v>18</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D44" s="26" t="s">
         <v>21</v>
       </c>
       <c r="E44" s="26" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F44" s="26"/>
       <c r="G44" s="27">
@@ -3134,31 +3212,33 @@
         <v>2.1458068881092491E-2</v>
       </c>
       <c r="N44" s="30" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O44" s="26">
         <v>1</v>
       </c>
       <c r="P44" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q44" s="31"/>
+        <v>30</v>
+      </c>
+      <c r="Q44" s="31" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="45" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="32" t="s">
         <v>18</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C45" s="32" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D45" s="33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E45" s="33" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F45" s="33"/>
       <c r="G45" s="34">
@@ -3183,7 +3263,7 @@
         <v>0</v>
       </c>
       <c r="N45" s="37" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O45" s="33">
         <v>1</v>
@@ -3191,23 +3271,25 @@
       <c r="P45" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="Q45" s="38"/>
+      <c r="Q45" s="38" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="46" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="24" t="s">
         <v>18</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C46" s="24" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E46" s="26" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F46" s="26"/>
       <c r="G46" s="27">
@@ -3232,31 +3314,33 @@
         <v>2.0993902843450173E-2</v>
       </c>
       <c r="N46" s="30" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O46" s="26">
         <v>1</v>
       </c>
       <c r="P46" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q46" s="31"/>
+        <v>30</v>
+      </c>
+      <c r="Q46" s="31" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="47" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="32" t="s">
         <v>18</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C47" s="32" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D47" s="33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E47" s="33" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F47" s="33"/>
       <c r="G47" s="34">
@@ -3281,31 +3365,33 @@
         <v>2.5529992699569022E-2</v>
       </c>
       <c r="N47" s="37" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O47" s="33">
         <v>1</v>
       </c>
       <c r="P47" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q47" s="38"/>
+        <v>30</v>
+      </c>
+      <c r="Q47" s="38" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="48" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="24" t="s">
         <v>18</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E48" s="26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F48" s="26"/>
       <c r="G48" s="27">
@@ -3330,7 +3416,7 @@
         <v>0</v>
       </c>
       <c r="N48" s="30" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O48" s="26">
         <v>1</v>
@@ -3338,23 +3424,25 @@
       <c r="P48" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="Q48" s="31"/>
+      <c r="Q48" s="31" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="49" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="32" t="s">
         <v>18</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C49" s="32" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D49" s="33" t="s">
         <v>21</v>
       </c>
       <c r="E49" s="33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" s="33"/>
       <c r="G49" s="34">
@@ -3379,31 +3467,33 @@
         <v>9.3378272714817103E-3</v>
       </c>
       <c r="N49" s="37" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O49" s="33">
         <v>1</v>
       </c>
       <c r="P49" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q49" s="38"/>
+        <v>30</v>
+      </c>
+      <c r="Q49" s="38" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="50" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="24" t="s">
         <v>18</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C50" s="24" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D50" s="26" t="s">
         <v>21</v>
       </c>
       <c r="E50" s="26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" s="26"/>
       <c r="G50" s="27">
@@ -3426,31 +3516,33 @@
         <v>6.684220443180457E-3</v>
       </c>
       <c r="N50" s="30" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O50" s="26">
         <v>1</v>
       </c>
       <c r="P50" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q50" s="31"/>
+        <v>30</v>
+      </c>
+      <c r="Q50" s="31" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="51" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="32" t="s">
         <v>18</v>
       </c>
       <c r="B51" s="25" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C51" s="32" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D51" s="33" t="s">
         <v>21</v>
       </c>
       <c r="E51" s="33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F51" s="33"/>
       <c r="G51" s="34">
@@ -3473,31 +3565,33 @@
         <v>1.9917972853229216E-2</v>
       </c>
       <c r="N51" s="37" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O51" s="33">
         <v>1</v>
       </c>
       <c r="P51" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q51" s="38"/>
+        <v>30</v>
+      </c>
+      <c r="Q51" s="38" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="52" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="24" t="s">
         <v>18</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D52" s="26" t="s">
         <v>21</v>
       </c>
       <c r="E52" s="26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F52" s="26"/>
       <c r="G52" s="27">
@@ -3520,31 +3614,33 @@
         <v>3.1741440812691054E-3</v>
       </c>
       <c r="N52" s="30" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O52" s="26">
         <v>1</v>
       </c>
       <c r="P52" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q52" s="31"/>
+        <v>30</v>
+      </c>
+      <c r="Q52" s="31" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="32" t="s">
         <v>18</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C53" s="32" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D53" s="33" t="s">
         <v>21</v>
       </c>
       <c r="E53" s="33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F53" s="33"/>
       <c r="G53" s="34">
@@ -3567,31 +3663,33 @@
         <v>1.0964416538126912E-2</v>
       </c>
       <c r="N53" s="37" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O53" s="33">
         <v>1</v>
       </c>
       <c r="P53" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q53" s="38"/>
+        <v>30</v>
+      </c>
+      <c r="Q53" s="38" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="24" t="s">
         <v>18</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D54" s="26" t="s">
         <v>21</v>
       </c>
       <c r="E54" s="26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F54" s="26"/>
       <c r="G54" s="27">
@@ -3616,31 +3714,33 @@
         <v>3.6576742768476751E-3</v>
       </c>
       <c r="N54" s="30" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O54" s="26">
         <v>1</v>
       </c>
       <c r="P54" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q54" s="31"/>
+        <v>30</v>
+      </c>
+      <c r="Q54" s="31" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="55" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="32" t="s">
         <v>18</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C55" s="32" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D55" s="33" t="s">
         <v>21</v>
       </c>
       <c r="E55" s="33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F55" s="33"/>
       <c r="G55" s="34">
@@ -3663,31 +3763,33 @@
         <v>2.8687641387040589E-3</v>
       </c>
       <c r="N55" s="37" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O55" s="33">
         <v>1</v>
       </c>
       <c r="P55" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q55" s="38"/>
+        <v>30</v>
+      </c>
+      <c r="Q55" s="38" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="56" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="24" t="s">
         <v>18</v>
       </c>
       <c r="B56" s="25" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D56" s="26" t="s">
         <v>21</v>
       </c>
       <c r="E56" s="26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F56" s="26"/>
       <c r="G56" s="27">
@@ -3712,31 +3814,33 @@
         <v>6.6608400154500183E-3</v>
       </c>
       <c r="N56" s="30" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O56" s="26">
         <v>1</v>
       </c>
       <c r="P56" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q56" s="31"/>
+        <v>30</v>
+      </c>
+      <c r="Q56" s="31" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="57" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="32" t="s">
         <v>18</v>
       </c>
       <c r="B57" s="25" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C57" s="32" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D57" s="33" t="s">
         <v>21</v>
       </c>
       <c r="E57" s="33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F57" s="33"/>
       <c r="G57" s="34">
@@ -3761,31 +3865,33 @@
         <v>6.8922782828502067E-3</v>
       </c>
       <c r="N57" s="37" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O57" s="33">
         <v>2</v>
       </c>
       <c r="P57" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q57" s="38"/>
+        <v>30</v>
+      </c>
+      <c r="Q57" s="38" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="58" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="24" t="s">
         <v>18</v>
       </c>
       <c r="B58" s="25" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C58" s="24" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D58" s="26" t="s">
         <v>21</v>
       </c>
       <c r="E58" s="26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F58" s="26"/>
       <c r="G58" s="27">
@@ -3810,31 +3916,33 @@
         <v>2.1822294416066146E-2</v>
       </c>
       <c r="N58" s="30" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O58" s="26">
         <v>2</v>
       </c>
       <c r="P58" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q58" s="31"/>
+        <v>30</v>
+      </c>
+      <c r="Q58" s="31" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="59" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="32" t="s">
         <v>18</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C59" s="32" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D59" s="33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E59" s="33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F59" s="33"/>
       <c r="G59" s="34">
@@ -3859,7 +3967,7 @@
         <v>0</v>
       </c>
       <c r="N59" s="37" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O59" s="33">
         <v>1</v>
@@ -3867,23 +3975,25 @@
       <c r="P59" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="Q59" s="38"/>
+      <c r="Q59" s="38" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="60" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="24" t="s">
         <v>18</v>
       </c>
       <c r="B60" s="25" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C60" s="24" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D60" s="26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E60" s="26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F60" s="26"/>
       <c r="G60" s="27">
@@ -3908,7 +4018,7 @@
         <v>0</v>
       </c>
       <c r="N60" s="30" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O60" s="26">
         <v>1</v>
@@ -3916,7 +4026,9 @@
       <c r="P60" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="Q60" s="31"/>
+      <c r="Q60" s="31" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="I3:I60">
@@ -3930,61 +4042,61 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{3183F2A9-5425-4042-8836-9038B3272475}"/>
-    <hyperlink ref="B7" r:id="rId2" xr:uid="{9D1DEE34-66C1-4178-A340-A0D85E301AA6}"/>
-    <hyperlink ref="B8" r:id="rId3" xr:uid="{8F47F4BA-2439-4E2D-A7D7-3346BF210A90}"/>
-    <hyperlink ref="B9" r:id="rId4" xr:uid="{ED2E6530-3B08-44BC-9307-3A51DDB7A068}"/>
-    <hyperlink ref="B10" r:id="rId5" xr:uid="{C5EA000B-84F1-4E29-8A28-5EB9EBE61673}"/>
-    <hyperlink ref="B11" r:id="rId6" xr:uid="{933C437C-8AA0-4152-A0CD-1D4A11AA3B88}"/>
-    <hyperlink ref="B12" r:id="rId7" xr:uid="{CDE627C8-56DA-495B-A1CA-426E27BD53F1}"/>
-    <hyperlink ref="B13" r:id="rId8" xr:uid="{25083FCD-B9DE-43C6-B7FA-D5F430C53FAA}"/>
-    <hyperlink ref="B14" r:id="rId9" xr:uid="{D3DEF9F6-6277-4163-9B9D-4216E976C526}"/>
-    <hyperlink ref="B15" r:id="rId10" xr:uid="{CAFA05BE-51C3-40DB-B7A7-AE2EC101577D}"/>
-    <hyperlink ref="B16" r:id="rId11" xr:uid="{8CD038A8-0368-4D9D-8ED7-FB87374F4DDA}"/>
-    <hyperlink ref="B17" r:id="rId12" xr:uid="{B9D3B1A6-36ED-485B-93C7-61CB83F9DDF6}"/>
-    <hyperlink ref="B18" r:id="rId13" xr:uid="{5F79874B-DDA0-4EEE-BA29-D8AB212FAC2B}"/>
-    <hyperlink ref="B19" r:id="rId14" xr:uid="{7E76B459-99AB-4213-8650-9EA01357124F}"/>
-    <hyperlink ref="B20" r:id="rId15" xr:uid="{2A6AEDFE-E9DA-4272-A99F-6756F326C846}"/>
-    <hyperlink ref="B21" r:id="rId16" xr:uid="{9EE81632-BF3E-465D-8764-260481773B96}"/>
-    <hyperlink ref="B22" r:id="rId17" xr:uid="{F9C6A527-B632-49E4-A299-CBB42E24E4EA}"/>
-    <hyperlink ref="B23" r:id="rId18" xr:uid="{596C5B12-4F16-4209-83AB-35D71D612D22}"/>
-    <hyperlink ref="B24" r:id="rId19" xr:uid="{0B3625BC-262A-4185-8DF1-9C87F004D918}"/>
-    <hyperlink ref="B25" r:id="rId20" xr:uid="{54D5E9C4-2693-4C46-A24E-83437B8AB43F}"/>
-    <hyperlink ref="B26" r:id="rId21" xr:uid="{A0934278-6EAE-4424-8B54-380F4B2E855E}"/>
-    <hyperlink ref="B27" r:id="rId22" xr:uid="{545FCA28-381D-4B95-9126-7516D36435CC}"/>
-    <hyperlink ref="B28" r:id="rId23" xr:uid="{3B5432AB-B57B-4017-9864-C663019906AF}"/>
-    <hyperlink ref="B29" r:id="rId24" xr:uid="{6C2A3ED8-C776-4F43-A4B3-80717F96A1DC}"/>
-    <hyperlink ref="B30" r:id="rId25" xr:uid="{978F2B2D-5A01-4A13-A4B7-EA0DCA0DC85B}"/>
-    <hyperlink ref="B31" r:id="rId26" xr:uid="{1DD0C44A-B3A0-4B92-957A-99780DE56954}"/>
-    <hyperlink ref="B32" r:id="rId27" xr:uid="{0DB301EE-4BFA-4035-B2D5-1CF5E2E1F60A}"/>
-    <hyperlink ref="B33" r:id="rId28" xr:uid="{383BEA81-68D5-4777-9A0B-7B687AD1DA37}"/>
-    <hyperlink ref="B34" r:id="rId29" xr:uid="{B2A06968-8C19-48D8-987C-DA4F3D1C2D1F}"/>
-    <hyperlink ref="B35" r:id="rId30" xr:uid="{007769C9-D92A-4169-975E-F79DFB9A6F8F}"/>
-    <hyperlink ref="B36" r:id="rId31" xr:uid="{58BDB19C-D242-47C4-B79F-06A84C2FD111}"/>
-    <hyperlink ref="B37" r:id="rId32" xr:uid="{D7F6785A-C52A-4BCB-A1E2-49C8924614B6}"/>
-    <hyperlink ref="B38" r:id="rId33" xr:uid="{81F5814B-A12B-426B-BA53-F4B51E3935F9}"/>
-    <hyperlink ref="B39" r:id="rId34" xr:uid="{8FDB32F2-B8BE-4FF0-9959-CE3116469C44}"/>
-    <hyperlink ref="B40" r:id="rId35" xr:uid="{81F5E7C0-2354-42FC-81EE-6F10186C033B}"/>
-    <hyperlink ref="B41" r:id="rId36" xr:uid="{A84F5EC4-647C-4607-AC7F-ADACC0CF4293}"/>
-    <hyperlink ref="B42" r:id="rId37" xr:uid="{441E4CDA-93B6-4739-A8FD-C536C8B99E40}"/>
-    <hyperlink ref="B43" r:id="rId38" xr:uid="{29A74861-9195-4E02-9485-DA8077E1AC8E}"/>
-    <hyperlink ref="B44" r:id="rId39" xr:uid="{912119EE-57BF-42C0-8811-2DB1C4EFF0C9}"/>
-    <hyperlink ref="B45" r:id="rId40" xr:uid="{07C46851-5E67-44D8-BACC-2B1BE94769C5}"/>
-    <hyperlink ref="B46" r:id="rId41" xr:uid="{DB200E67-BDCB-47E8-BC9B-0A08E3D66BA4}"/>
-    <hyperlink ref="B47" r:id="rId42" xr:uid="{AA4D5B48-97B2-4786-9523-99ADC8239A2A}"/>
-    <hyperlink ref="B48" r:id="rId43" xr:uid="{8573322C-2F2D-4F33-8A71-D25D4F8732C0}"/>
-    <hyperlink ref="B49" r:id="rId44" xr:uid="{E391655F-2851-4F82-AC24-8E4B0D561ACA}"/>
-    <hyperlink ref="B50" r:id="rId45" xr:uid="{935EC6CA-0F20-412D-AB8B-E6D34977D528}"/>
-    <hyperlink ref="B51" r:id="rId46" xr:uid="{ADCE1660-77F2-4CCA-A8B9-A1820DAC4311}"/>
-    <hyperlink ref="B52" r:id="rId47" xr:uid="{B4720621-4232-4379-AF0B-BF64FA975B82}"/>
-    <hyperlink ref="B53" r:id="rId48" xr:uid="{BD45E59B-C9C6-48D4-9280-5266031BA52E}"/>
-    <hyperlink ref="B54" r:id="rId49" xr:uid="{E7306DA9-6A00-4FFE-BF26-34C3682D3845}"/>
-    <hyperlink ref="B55" r:id="rId50" xr:uid="{BBDF8E94-1489-4022-821C-285A91C44DA8}"/>
-    <hyperlink ref="B56" r:id="rId51" xr:uid="{301FEE23-12CB-4255-BFD5-3DE36B30E4FE}"/>
-    <hyperlink ref="B57" r:id="rId52" xr:uid="{50D573C6-6515-4CA5-ADF3-97FFA8DB0AA6}"/>
-    <hyperlink ref="B58" r:id="rId53" xr:uid="{4453B74E-A86A-46D2-829E-15F73748568D}"/>
-    <hyperlink ref="B59" r:id="rId54" xr:uid="{6C4F05C8-612A-400C-AD25-622BF5988EF3}"/>
-    <hyperlink ref="B60" r:id="rId55" xr:uid="{31186373-A7B5-4085-9196-F762731F374E}"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{01CEDEE1-AAF5-4EE7-8A3B-9F2ED0746BAC}"/>
+    <hyperlink ref="B7" r:id="rId2" xr:uid="{27D8171F-7DB3-4C32-8192-68D8775CCBCE}"/>
+    <hyperlink ref="B8" r:id="rId3" xr:uid="{712CE7E3-2FB3-4FCD-8CFE-A589EB206557}"/>
+    <hyperlink ref="B9" r:id="rId4" xr:uid="{5BE9377E-804F-4425-9BD9-3091044C517C}"/>
+    <hyperlink ref="B10" r:id="rId5" xr:uid="{9278EDF4-2AF9-4E1D-944C-D41A74A0FF55}"/>
+    <hyperlink ref="B11" r:id="rId6" xr:uid="{8B9E45BB-C153-4AA4-B244-FBF1A47D33C6}"/>
+    <hyperlink ref="B12" r:id="rId7" xr:uid="{984A94A9-68DB-4F68-9F15-A6381364DFDD}"/>
+    <hyperlink ref="B13" r:id="rId8" xr:uid="{3E11A2CB-38B5-43C4-92E5-AE8AD9A38041}"/>
+    <hyperlink ref="B14" r:id="rId9" xr:uid="{D19C3513-A362-4706-98BB-43D2559D2DE7}"/>
+    <hyperlink ref="B15" r:id="rId10" xr:uid="{C1CD6229-E6B1-4FBE-8DA8-F721C9139684}"/>
+    <hyperlink ref="B16" r:id="rId11" xr:uid="{FDCDE86A-2939-45DF-9955-F6E609690D9F}"/>
+    <hyperlink ref="B17" r:id="rId12" xr:uid="{3CAC7941-4C3C-478A-BEF7-AD30E7E57325}"/>
+    <hyperlink ref="B18" r:id="rId13" xr:uid="{5D7B7A94-07CC-4B23-9881-99E097AC246F}"/>
+    <hyperlink ref="B19" r:id="rId14" xr:uid="{6D044D16-D8DB-4A06-9627-59B959D572AF}"/>
+    <hyperlink ref="B20" r:id="rId15" xr:uid="{4C7A94CC-9A2D-4A3C-B7EB-F09AB57CF01C}"/>
+    <hyperlink ref="B21" r:id="rId16" xr:uid="{0A26B7B6-B8C5-4BB3-B573-A22EFE1E3389}"/>
+    <hyperlink ref="B22" r:id="rId17" xr:uid="{10B55462-1E40-4BB5-95BD-6722DB58D685}"/>
+    <hyperlink ref="B23" r:id="rId18" xr:uid="{DB092562-FD0E-4996-96F3-A95710133A2D}"/>
+    <hyperlink ref="B24" r:id="rId19" xr:uid="{2C994045-F699-44FB-9F5E-DF54B75D368A}"/>
+    <hyperlink ref="B25" r:id="rId20" xr:uid="{50166761-F4DF-4F40-8C26-FC61ACEDA57F}"/>
+    <hyperlink ref="B26" r:id="rId21" xr:uid="{21D9439A-D768-4613-AE39-FF4087D3FBC5}"/>
+    <hyperlink ref="B27" r:id="rId22" xr:uid="{B2A760F1-4032-4FCC-A184-38992963D722}"/>
+    <hyperlink ref="B28" r:id="rId23" xr:uid="{95E65BE5-0BCE-4A4A-AF0E-6F2903B1E30D}"/>
+    <hyperlink ref="B29" r:id="rId24" xr:uid="{87E5539A-D00C-46C8-BDE1-A0108C537DCB}"/>
+    <hyperlink ref="B30" r:id="rId25" xr:uid="{C3741FFE-A832-419E-A148-98C56B517732}"/>
+    <hyperlink ref="B31" r:id="rId26" xr:uid="{90D7E273-C8F7-4ED5-956B-226AB69FC54A}"/>
+    <hyperlink ref="B32" r:id="rId27" xr:uid="{2FB613E9-F594-4881-9A8A-35FBB1D41B5D}"/>
+    <hyperlink ref="B33" r:id="rId28" xr:uid="{A6C5BE46-E61B-478A-9B8B-666E3D080DAF}"/>
+    <hyperlink ref="B34" r:id="rId29" xr:uid="{577B5318-EE5E-4FE2-915C-A26343789AB6}"/>
+    <hyperlink ref="B35" r:id="rId30" xr:uid="{C2F7975A-7793-4D78-B3E8-AD1D3C68CCBC}"/>
+    <hyperlink ref="B36" r:id="rId31" xr:uid="{0A29AE1B-5502-44AD-B1FB-90B75AFEF9E8}"/>
+    <hyperlink ref="B37" r:id="rId32" xr:uid="{6E57DC1E-B583-4065-A5C7-F512C1B3BF06}"/>
+    <hyperlink ref="B38" r:id="rId33" xr:uid="{E6719832-818F-4333-82A4-BA84E461C08B}"/>
+    <hyperlink ref="B39" r:id="rId34" xr:uid="{D1FBE859-C3DE-456C-9632-67EDEF075AB6}"/>
+    <hyperlink ref="B40" r:id="rId35" xr:uid="{06EC4447-78E6-4FD4-94A7-6D2CA1C04F89}"/>
+    <hyperlink ref="B41" r:id="rId36" xr:uid="{0CAD10FB-B7B3-4935-BA5E-401899823F40}"/>
+    <hyperlink ref="B42" r:id="rId37" xr:uid="{5821E059-6CCB-4248-99AF-14A41C7603CB}"/>
+    <hyperlink ref="B43" r:id="rId38" xr:uid="{759E557D-E296-4FCA-AB2C-53410C3BA772}"/>
+    <hyperlink ref="B44" r:id="rId39" xr:uid="{ACE380EB-D808-42B7-8393-C959BD93C1CF}"/>
+    <hyperlink ref="B45" r:id="rId40" xr:uid="{F90AF7A8-FA30-4FF8-A10E-5E28F543C70D}"/>
+    <hyperlink ref="B46" r:id="rId41" xr:uid="{617697DA-C611-4DA7-B4A0-587899E96657}"/>
+    <hyperlink ref="B47" r:id="rId42" xr:uid="{B524C0AC-422C-4728-93ED-4A4786F02C54}"/>
+    <hyperlink ref="B48" r:id="rId43" xr:uid="{9A65BAAF-E063-4687-AEA4-CDDBD6DDD8CE}"/>
+    <hyperlink ref="B49" r:id="rId44" xr:uid="{033FB8B0-160F-4A0F-BDC7-F26DE471278C}"/>
+    <hyperlink ref="B50" r:id="rId45" xr:uid="{0301A090-B033-486E-AD53-A193EDF6EB60}"/>
+    <hyperlink ref="B51" r:id="rId46" xr:uid="{55D935A4-2763-45DA-A611-31FC4D06F8C5}"/>
+    <hyperlink ref="B52" r:id="rId47" xr:uid="{126999D0-65D3-4778-BBB7-CF16E92250E8}"/>
+    <hyperlink ref="B53" r:id="rId48" xr:uid="{619CEBE6-AD7B-49D3-B50D-03FBEEDC1260}"/>
+    <hyperlink ref="B54" r:id="rId49" xr:uid="{95B1F57D-B7F6-4FF5-850A-41B5076DD322}"/>
+    <hyperlink ref="B55" r:id="rId50" xr:uid="{454BDF8C-8C00-4F67-A14E-212B747FA67B}"/>
+    <hyperlink ref="B56" r:id="rId51" xr:uid="{7E04FF43-C0E9-4780-AE01-E6BE4AFCCB4A}"/>
+    <hyperlink ref="B57" r:id="rId52" xr:uid="{EF12D8EB-8A86-4BA9-B9C2-308353CFE824}"/>
+    <hyperlink ref="B58" r:id="rId53" xr:uid="{8693EB05-DA02-4E93-8222-FCF036CD757A}"/>
+    <hyperlink ref="B59" r:id="rId54" xr:uid="{92D26790-06E7-45AE-B97D-94A130644EC8}"/>
+    <hyperlink ref="B60" r:id="rId55" xr:uid="{E4754FD1-9CBC-42E7-92A2-211EADFB694D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
